--- a/crispr_screen_analysis/fastqc/QC_table.xlsx
+++ b/crispr_screen_analysis/fastqc/QC_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heigwer/Documents/GitHub/Supp_Bamberg_2021/crispr_screen_analysis/fastqc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57764B5E-B835-134C-A033-A7689F248292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6FE9E2C-2189-C746-A6A4-0C9B4185F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="500" windowWidth="27300" windowHeight="16940" xr2:uid="{46DF2F53-4758-5D46-88E8-ED076554351B}"/>
   </bookViews>
@@ -90,26 +90,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -141,12 +128,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -469,7 +450,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,19 +505,19 @@
         <v>802279</v>
       </c>
       <c r="E2" s="3">
-        <v>248680</v>
-      </c>
-      <c r="F2" s="4">
-        <v>45</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2659</v>
-      </c>
-      <c r="I2" s="6">
-        <v>4.0936142834164384</v>
+        <v>88</v>
+      </c>
+      <c r="F2" s="2">
+        <v>802279</v>
+      </c>
+      <c r="G2" s="2">
+        <v>802279</v>
+      </c>
+      <c r="H2" s="2">
+        <v>802279</v>
+      </c>
+      <c r="I2" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -553,19 +534,19 @@
         <v>1510357</v>
       </c>
       <c r="E3" s="3">
-        <v>248680</v>
-      </c>
-      <c r="F3" s="4">
-        <v>99</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2004</v>
-      </c>
-      <c r="I3" s="6">
-        <v>15.964291458903007</v>
+        <v>88</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1510357</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1510357</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1510357</v>
+      </c>
+      <c r="I3" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -582,19 +563,19 @@
         <v>2162140</v>
       </c>
       <c r="E4" s="3">
-        <v>248680</v>
-      </c>
-      <c r="F4" s="4">
-        <v>139</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3073</v>
-      </c>
-      <c r="I4" s="6">
-        <v>32.387003377834972</v>
+        <v>88</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2162140</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2162140</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2162140</v>
+      </c>
+      <c r="I4" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -611,19 +592,19 @@
         <v>2324620</v>
       </c>
       <c r="E5" s="3">
-        <v>248680</v>
-      </c>
-      <c r="F5" s="4">
-        <v>147</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>3252</v>
-      </c>
-      <c r="I5" s="6">
-        <v>35.61203152645971</v>
+        <v>88</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2324620</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2324620</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2324620</v>
+      </c>
+      <c r="I5" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -640,19 +621,19 @@
         <v>2430943</v>
       </c>
       <c r="E6" s="3">
-        <v>248680</v>
-      </c>
-      <c r="F6" s="4">
-        <v>156</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>8354</v>
-      </c>
-      <c r="I6" s="6">
-        <v>36.963165513913466</v>
+        <v>88</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2430943</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2430943</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2430943</v>
+      </c>
+      <c r="I6" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -669,19 +650,19 @@
         <v>2062132</v>
       </c>
       <c r="E7" s="3">
-        <v>248680</v>
-      </c>
-      <c r="F7" s="4">
-        <v>128</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>3616</v>
-      </c>
-      <c r="I7" s="6">
-        <v>28.960913623934374</v>
+        <v>88</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2062132</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2062132</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2062132</v>
+      </c>
+      <c r="I7" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -698,19 +679,19 @@
         <v>2475150</v>
       </c>
       <c r="E8" s="3">
-        <v>248680</v>
-      </c>
-      <c r="F8" s="4">
-        <v>164</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>2515</v>
-      </c>
-      <c r="I8" s="6">
-        <v>39.40807463406788</v>
+        <v>88</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2475150</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2475150</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2475150</v>
+      </c>
+      <c r="I8" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -727,19 +708,19 @@
         <v>2962527</v>
       </c>
       <c r="E9" s="3">
-        <v>248680</v>
-      </c>
-      <c r="F9" s="4">
-        <v>196</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>4374</v>
-      </c>
-      <c r="I9" s="6">
-        <v>48.801672832555894</v>
+        <v>88</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2962527</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2962527</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2962527</v>
+      </c>
+      <c r="I9" s="4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
